--- a/docs/extension-subscription-triggerevent.xlsx
+++ b/docs/extension-subscription-triggerevent.xlsx
@@ -143,7 +143,7 @@
     <t>A brief, natural language description of a particular event identified by the implementation environment. When this event is evaluated as true, it triggers a notification to the subscriber.</t>
   </si>
   <si>
-    <t>If the expression is a [FHIRPath](http://hl7.org/fhirpath) expression, use the [fhirPath Expression]({{site.data.fhir.path}}/cqif/extension-cqif-fhirpathexpression.html) extension.</t>
+    <t>If the expression is a [FHIRPath](http://hl7.org/fhirpath/) expression, use the [fhirPath Expression](cqif/extension-cqif-fhirpathexpression.html) extension.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
